--- a/branches/ezauto/source code/bin/Debug/sale statement - quantity only.xlsx
+++ b/branches/ezauto/source code/bin/Debug/sale statement - quantity only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ល.រ.</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">សំរាប់រយៈពេល </t>
-  </si>
-  <si>
-    <t>វិក្កយបត្រ</t>
-  </si>
-  <si>
-    <t>អតិថិជន</t>
   </si>
   <si>
     <t>សរុប</t>
@@ -176,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,34 +193,22 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,107 +512,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:8" ht="35.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:6" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="1"/>
+    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" ht="27.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
